--- a/posesiones/1485988.xlsx
+++ b/posesiones/1485988.xlsx
@@ -1904,10 +1904,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2098,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>13</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2389,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R13">
         <v>11</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R16">
         <v>19</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18">
         <v>14</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2736,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R20">
         <v>20</v>
@@ -2789,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R21">
         <v>14</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3083,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R27">
         <v>36</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R29">
         <v>9</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R31">
         <v>15</v>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3389,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R33">
         <v>8</v>
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R34">
         <v>13</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R37">
         <v>21</v>
@@ -3645,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R38">
         <v>11</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R40">
         <v>15</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3845,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R42">
         <v>29</v>
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R43">
         <v>17</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3998,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R45">
         <v>17</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4101,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R47">
         <v>12</v>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4198,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R49">
         <v>27</v>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4345,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R52">
         <v>19</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4539,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R56">
         <v>16</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R58">
         <v>9</v>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4739,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R60">
         <v>17</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4836,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R64">
         <v>31</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5083,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -5136,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R68">
         <v>20</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5330,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R72">
         <v>15</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5430,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R74">
         <v>22</v>
@@ -5483,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R75">
         <v>18</v>
@@ -5536,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R76">
         <v>14</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5727,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5777,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R81">
         <v>4</v>
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5921,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R84">
         <v>25</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6024,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R86">
         <v>17</v>
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6124,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R88">
         <v>5</v>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6371,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R93">
         <v>32</v>
@@ -6424,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R94">
         <v>12</v>
@@ -6480,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R95">
         <v>2</v>
@@ -6524,10 +6524,10 @@
         <v>1</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6662,10 +6662,10 @@
         <v>1</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6715,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R100">
         <v>11</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6959,7 +6959,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R105">
         <v>16</v>
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7156,7 +7156,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R109">
         <v>25</v>
@@ -7209,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R110">
         <v>10</v>
@@ -7262,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7312,7 +7312,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R112">
         <v>17</v>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7415,7 +7415,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R114">
         <v>17</v>
@@ -7468,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7518,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R116">
         <v>9</v>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7806,7 +7806,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R122">
         <v>28</v>
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8141,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8329,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8426,7 +8426,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R135">
         <v>23</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8529,7 +8529,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R137">
         <v>11</v>
@@ -8582,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8632,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R139">
         <v>10</v>
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8729,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8779,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8829,7 +8829,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R143">
         <v>23</v>
@@ -8882,7 +8882,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R144">
         <v>21</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R146">
         <v>29</v>
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9270,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9320,7 +9320,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R153">
         <v>5</v>
@@ -9370,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9420,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9567,7 +9567,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R158">
         <v>37</v>
@@ -9617,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9667,7 +9667,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R160">
         <v>14</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9767,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9817,7 +9817,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R163">
         <v>19</v>
@@ -9867,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9914,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9964,7 +9964,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R166">
         <v>0</v>
@@ -10017,7 +10017,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R167">
         <v>13</v>
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10214,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R171">
         <v>12</v>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10308,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10405,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10452,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10499,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10546,7 +10546,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R179">
         <v>28</v>
@@ -10646,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10693,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10743,7 +10743,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R182">
         <v>20</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10843,7 +10843,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R184">
         <v>7</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10943,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11037,7 +11037,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11084,7 +11084,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11131,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11181,7 +11181,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R191">
         <v>17</v>
@@ -11234,7 +11234,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R192">
         <v>16</v>
@@ -11284,7 +11284,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11331,7 +11331,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11428,7 +11428,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R196">
         <v>0</v>
@@ -11481,7 +11481,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R197">
         <v>5</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11578,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11675,7 +11675,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R201">
         <v>0</v>
@@ -11728,7 +11728,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R202">
         <v>13</v>
@@ -11781,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11831,7 +11831,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R204">
         <v>14</v>
@@ -11884,7 +11884,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11934,7 +11934,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R206">
         <v>13</v>
@@ -11984,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12031,7 +12031,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12078,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12125,7 +12125,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12172,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12219,7 +12219,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12266,7 +12266,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12316,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R214">
         <v>1</v>
@@ -12369,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12419,7 +12419,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R216">
         <v>18</v>
@@ -12472,7 +12472,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12522,7 +12522,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R218">
         <v>14</v>
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12619,7 +12619,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12669,7 +12669,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12719,7 +12719,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R222">
         <v>26</v>
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12816,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12866,7 +12866,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R225">
         <v>21</v>
@@ -12919,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12969,7 +12969,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R227">
         <v>4</v>
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13066,7 +13066,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13113,7 +13113,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13207,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13254,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13304,7 +13304,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R234">
         <v>1</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13398,7 +13398,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13445,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13492,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13589,7 +13589,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R240">
         <v>10</v>
@@ -13639,7 +13639,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13730,7 +13730,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13777,7 +13777,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13824,7 +13824,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13871,7 +13871,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13921,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R247">
         <v>19</v>
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14012,10 +14012,10 @@
         <v>1</v>
       </c>
       <c r="P249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q249">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14062,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14109,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14156,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14203,7 +14203,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14250,7 +14250,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14297,7 +14297,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14338,10 +14338,10 @@
         <v>1</v>
       </c>
       <c r="P256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q256">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14391,7 +14391,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R257">
         <v>12</v>
@@ -14444,7 +14444,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14494,7 +14494,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R259">
         <v>13</v>
@@ -14547,7 +14547,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14594,7 +14594,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14691,7 +14691,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14741,7 +14741,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14791,7 +14791,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R265">
         <v>39</v>
@@ -14841,7 +14841,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14891,7 +14891,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14941,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R268">
         <v>26</v>
@@ -14994,7 +14994,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R269">
         <v>10</v>
@@ -15047,7 +15047,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R270">
         <v>13</v>
@@ -15100,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15150,7 +15150,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R272">
         <v>7</v>
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R273">
         <v>23</v>
@@ -15256,7 +15256,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15306,7 +15306,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R275">
         <v>6</v>
@@ -15353,7 +15353,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15403,7 +15403,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R277">
         <v>7</v>
@@ -15456,7 +15456,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R278">
         <v>10</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R279">
         <v>7</v>
@@ -15559,7 +15559,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15606,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15653,7 +15653,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15700,7 +15700,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15747,7 +15747,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15794,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15844,7 +15844,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R286">
         <v>8</v>
@@ -15894,7 +15894,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15941,7 +15941,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15991,7 +15991,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16038,7 +16038,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16085,7 +16085,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16132,7 +16132,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16182,7 +16182,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R293">
         <v>22</v>
@@ -16235,7 +16235,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R294">
         <v>18</v>
@@ -16288,7 +16288,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16338,7 +16338,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R296">
         <v>16</v>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16441,7 +16441,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R298">
         <v>26</v>
@@ -16491,7 +16491,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16538,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16585,7 +16585,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16632,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16679,7 +16679,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16729,7 +16729,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R304">
         <v>28</v>
@@ -16779,7 +16779,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16829,7 +16829,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R306">
         <v>11</v>
@@ -16882,7 +16882,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R307">
         <v>18</v>
@@ -16935,7 +16935,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16982,7 +16982,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17029,7 +17029,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17079,7 +17079,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R311">
         <v>19</v>
@@ -17129,7 +17129,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17176,7 +17176,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17223,7 +17223,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17273,7 +17273,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R315">
         <v>0</v>
@@ -17323,7 +17323,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17370,7 +17370,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17417,7 +17417,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17464,7 +17464,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17514,7 +17514,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R320">
         <v>21</v>
@@ -17567,7 +17567,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R321">
         <v>19</v>
@@ -17620,7 +17620,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R322">
         <v>11</v>
@@ -17673,7 +17673,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17723,7 +17723,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R324">
         <v>9</v>
@@ -17776,7 +17776,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17823,7 +17823,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17870,7 +17870,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17917,7 +17917,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17964,7 +17964,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18011,7 +18011,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18058,7 +18058,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18105,7 +18105,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18152,7 +18152,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18199,7 +18199,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18246,7 +18246,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18293,7 +18293,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18343,7 +18343,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R337">
         <v>8</v>
@@ -18396,7 +18396,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R338">
         <v>1</v>
@@ -18449,7 +18449,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R339">
         <v>10</v>
@@ -18499,7 +18499,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18546,7 +18546,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18593,7 +18593,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18640,7 +18640,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18690,7 +18690,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R344">
         <v>25</v>
@@ -18743,7 +18743,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18793,7 +18793,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R346">
         <v>8</v>
@@ -18846,7 +18846,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18893,7 +18893,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18940,7 +18940,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18987,7 +18987,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19034,7 +19034,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19084,7 +19084,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R352">
         <v>17</v>
@@ -19137,7 +19137,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R353">
         <v>25</v>
@@ -19190,7 +19190,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19237,7 +19237,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19287,7 +19287,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19337,7 +19337,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R357">
         <v>29</v>
@@ -19390,7 +19390,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19437,7 +19437,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19484,7 +19484,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19531,7 +19531,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19578,7 +19578,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19622,7 +19622,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19669,7 +19669,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19719,7 +19719,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R365">
         <v>7</v>
@@ -19769,7 +19769,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19819,7 +19819,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R367">
         <v>23</v>
@@ -19869,7 +19869,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19916,7 +19916,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19969,7 +19969,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R370">
         <v>23</v>
@@ -20019,7 +20019,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20066,7 +20066,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20113,7 +20113,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20160,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20207,7 +20207,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20254,7 +20254,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20301,7 +20301,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20348,7 +20348,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20398,7 +20398,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R379">
         <v>8</v>
@@ -20451,7 +20451,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20501,7 +20501,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R381">
         <v>17</v>
@@ -20545,10 +20545,10 @@
         <v>1</v>
       </c>
       <c r="P382" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q382">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20595,7 +20595,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20642,7 +20642,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20736,7 +20736,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20783,7 +20783,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20830,7 +20830,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20871,10 +20871,10 @@
         <v>1</v>
       </c>
       <c r="P389" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q389">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20921,7 +20921,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20971,7 +20971,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21021,7 +21021,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R392">
         <v>21</v>
@@ -21074,7 +21074,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R393">
         <v>26</v>
@@ -21127,7 +21127,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21174,7 +21174,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21221,7 +21221,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21271,7 +21271,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R397">
         <v>17</v>
@@ -21324,7 +21324,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R398">
         <v>23</v>
@@ -21374,7 +21374,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21424,7 +21424,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R400">
         <v>21</v>
@@ -21477,7 +21477,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21527,7 +21527,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R402">
         <v>10</v>
@@ -21577,7 +21577,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21627,7 +21627,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R404">
         <v>19</v>
@@ -21680,7 +21680,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R405">
         <v>17</v>
@@ -21733,7 +21733,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21777,7 +21777,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21827,7 +21827,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R408">
         <v>11</v>
@@ -21877,7 +21877,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21924,7 +21924,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21971,7 +21971,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22018,7 +22018,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22068,7 +22068,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22115,7 +22115,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22212,7 +22212,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22262,7 +22262,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22312,7 +22312,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R418">
         <v>34</v>
@@ -22365,7 +22365,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22415,7 +22415,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R420">
         <v>17</v>
@@ -22465,7 +22465,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22515,7 +22515,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R422">
         <v>8</v>
@@ -22568,7 +22568,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22665,7 +22665,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22712,7 +22712,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22806,7 +22806,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22856,7 +22856,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R429">
         <v>14</v>
@@ -22909,7 +22909,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R430">
         <v>16</v>
@@ -22959,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23006,7 +23006,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23053,7 +23053,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23100,7 +23100,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23194,7 +23194,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23241,7 +23241,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23291,7 +23291,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R438">
         <v>20</v>
@@ -23344,7 +23344,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23394,7 +23394,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R440">
         <v>18</v>
@@ -23447,7 +23447,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R441">
         <v>16</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23547,7 +23547,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R443">
         <v>6</v>
@@ -23597,7 +23597,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23644,7 +23644,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23744,7 +23744,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R447">
         <v>22</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23844,7 +23844,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23891,7 +23891,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23991,7 +23991,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R452">
         <v>37</v>
@@ -24044,7 +24044,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24091,7 +24091,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24185,7 +24185,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24232,7 +24232,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24282,7 +24282,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R458">
         <v>18</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24470,7 +24470,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24517,7 +24517,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24567,7 +24567,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R464">
         <v>10</v>
@@ -24617,7 +24617,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24667,7 +24667,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R466">
         <v>10</v>
@@ -24717,7 +24717,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24764,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24811,7 +24811,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24908,7 +24908,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R471">
         <v>15</v>
@@ -24958,7 +24958,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25008,7 +25008,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25058,7 +25058,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R474">
         <v>26</v>
@@ -25111,7 +25111,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R475">
         <v>12</v>
@@ -25164,7 +25164,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25214,7 +25214,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R477">
         <v>21</v>
@@ -25261,7 +25261,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25308,7 +25308,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25355,7 +25355,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25405,7 +25405,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R481">
         <v>10</v>
@@ -25458,7 +25458,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25508,7 +25508,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R483">
         <v>18</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25652,7 +25652,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25702,7 +25702,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R487">
         <v>13</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25802,7 +25802,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R489">
         <v>30</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25899,7 +25899,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25993,7 +25993,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26090,7 +26090,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R495">
         <v>8</v>
@@ -26143,7 +26143,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26193,7 +26193,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R497">
         <v>24</v>
@@ -26246,7 +26246,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26296,7 +26296,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R499">
         <v>7</v>
@@ -26346,7 +26346,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26396,7 +26396,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R501">
         <v>2</v>
@@ -26440,10 +26440,10 @@
         <v>1</v>
       </c>
       <c r="P502" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q502">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
